--- a/firefox/danh_sach_sp_3.xlsx
+++ b/firefox/danh_sach_sp_3.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>362.400đ / Hộp</t>
+          <t>453.000đ / Hộp</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -541,17 +541,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Viên nang mềm NatureCare Omega 369 bổ sung Omega, giảm nguy cơ xơ vữa động mạch (6 vỉ x 20 viên)</t>
+          <t>Viên uống Brauer Ultra Pure DHA For Pregnancy &amp; Breastfeeding hỗ trợ tăng cường sức khoẻ phụ nữ mang thai và cho con bú (60 viên)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>513.000đ / Hộp</t>
+          <t>550.000đ / Hộp</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09006_a1b4671cf5.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09544_d2a3970fcb.jpg</t>
         </is>
       </c>
     </row>
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Viên uống Brauer Ultra Pure DHA For Pregnancy &amp; Breastfeeding hỗ trợ tăng cường sức khoẻ phụ nữ mang thai và cho con bú (60 viên)</t>
+          <t>Viên sủi Kudos Kids Multivitamins Plus Calcium &amp; D3 hương dưa hấu giúp bổ sung calci và vitamin cho cơ thể (20 viên)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>550.000đ / Hộp</t>
+          <t>127.200đ / Tuýp</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09544_d2a3970fcb.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09365_33ea32b9d1.jpg</t>
         </is>
       </c>
     </row>
@@ -581,17 +581,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Viên sủi Kudos Kids Multivitamins Plus Calcium &amp; D3 hương dưa hấu giúp bổ sung calci và vitamin cho cơ thể (20 viên)</t>
+          <t>Viên sủi Kudos Daily Vitamins Plus Biotin &amp; Ginseng hương cam giúp bổ sung vitamin cho cơ thể (20 viên)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>127.200đ / Tuýp</t>
+          <t>111.200đ / Tuýp</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09365_33ea32b9d1.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09335_24b9811179.jpg</t>
         </is>
       </c>
     </row>
@@ -601,17 +601,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Viên sủi Kudos Daily Vitamins Plus Biotin &amp; Ginseng hương cam giúp bổ sung vitamin cho cơ thể (20 viên)</t>
+          <t>Viên sủi Kudos Vitamin C 1000mg hương chanh giúp bổ sung vitamin C cho cơ thể (20 viên)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111.200đ / Tuýp</t>
+          <t>100.800đ / Tuýp</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09335_24b9811179.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09324_db795e136a.jpg</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Viên sủi Kudos Vitamin C 1000mg hương chanh giúp bổ sung vitamin C cho cơ thể (20 viên)</t>
+          <t>Viên sủi Kudos Bone hương cam bổ sung canxi, vitamin K2, vitamin D3 cho cơ thể (20 viên)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09324_db795e136a.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09344_b38a024079.jpg</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Viên sủi Kudos Bone hương cam bổ sung canxi, vitamin K2, vitamin D3 cho cơ thể (20 viên)</t>
+          <t>Siro ZinC + Lysin Hatro bổ sung kẽm, hỗ trợ tăng sức đề kháng cho trẻ (120ml)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>100.800đ / Tuýp</t>
+          <t>150.000đ / Hộp</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09344_b38a024079.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08313_1efe9a74d1.jpg</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dung dịch Feginic bổ sung sắt cho người thiếu máu do thiếu sắt (4 vỉ x 5 ống x 5ml)</t>
+          <t>Thực phẩm bảo vệ sức khỏe Prenatal One Vitamins For Life cung cấp DHA, vitamin và khoáng chất</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>108.000đ / Hộp</t>
+          <t>660.000đ / Hộp</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501604_ong_uong_bo_sung_sat_feginic_4x5_ong_5ml_7086_62f9_large_b9aea30e80.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00115_72e83dcffe.jpg</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Viên uống Multivitamin +Zn +D3 Royal Care hỗ trợ tăng cường sức khỏe, nâng cao sức đề kháng (60 viên)</t>
+          <t>Dung dịch Feginic bổ sung sắt cho người thiếu máu do thiếu sắt (4 vỉ x 5 ống x 5ml)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>175.000đ / Hộp</t>
+          <t>108.000đ / Hộp</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08020_1cb976cef9.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501604_ong_uong_bo_sung_sat_feginic_4x5_ong_5ml_7086_62f9_large_b9aea30e80.jpg</t>
         </is>
       </c>
     </row>
@@ -701,17 +701,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Viên uống Dr. Caci Ocavill giúp xương và răng chắc khỏe (60 viên)</t>
+          <t>Viên uống Multivitamin +Zn +D3 Royal Care hỗ trợ tăng cường sức khỏe, nâng cao sức đề kháng (60 viên)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>570.000đ / Hộp</t>
+          <t>175.000đ / Hộp</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08680_827789c4f8.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08020_1cb976cef9.png</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Viên uống B Complex Vitamin Royal Care hỗ trợ giảm mệt mỏi, căng thẳng (60 viên)</t>
+          <t>Viên uống Dr. Caci Ocavill giúp xương và răng chắc khỏe (60 viên)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>160.000đ / Hộp</t>
+          <t>570.000đ / Hộp</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032942_b_complex_vitamin_royal_care_60v_5253_61c0_large_17e5e39343.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08680_827789c4f8.jpg</t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Viên nén Multi Vitas Lab Well bổ sung vitamin và khoáng chất cho cơ thể (60 viên)</t>
+          <t>Viên uống B Complex Vitamin Royal Care hỗ trợ giảm mệt mỏi, căng thẳng (60 viên)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>340.000đ / Hộp</t>
+          <t>160.000đ / Hộp</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08333_0d6a18e346.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032942_b_complex_vitamin_royal_care_60v_5253_61c0_large_17e5e39343.jpg</t>
         </is>
       </c>
     </row>
@@ -761,17 +761,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Viên uống Teens Active Vitamins For Life bổ sung vitamin và khoáng chất cho thanh thiếu niên (60 viên)</t>
+          <t>Viên nén Multi Vitas Lab Well bổ sung vitamin và khoáng chất cho cơ thể (60 viên)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>350.000đ / Hộp</t>
+          <t>340.000đ / Hộp</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345388_teens_active_bo_sung_vitamin_cho_thieu_nien_5186_63a9_large_c8259bcfea.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08333_0d6a18e346.jpg</t>
         </is>
       </c>
     </row>
@@ -781,17 +781,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Viên uống Omega 3-6-9 Pharmekal hỗ trợ giảm nguy cơ xơ vữa động mạch (100 viên)</t>
+          <t>Viên uống Teens Active Vitamins For Life bổ sung vitamin và khoáng chất cho thanh thiếu niên (60 viên)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>319.000đ / Hộp</t>
+          <t>350.000đ / Hộp</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00005529_dau_ca_omega_369_my_5744_63d7_large_2e69b98de7.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345388_teens_active_bo_sung_vitamin_cho_thieu_nien_5186_63a9_large_c8259bcfea.jpg</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>251.000đ / Hộp</t>
+          <t>225.900đ / Hộp</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -841,17 +841,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Viên uống Prenatal One Vitamins For Life cung cấp DHA, Vitamin và khoáng chất thiết yếu (30 viên)</t>
+          <t>Viên uống Happy Mom Jpanwell bổ sung vitamin và khoáng chất (60 viên)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>365.000đ / Hộp</t>
+          <t>815.000đ / Hộp</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021616_prenatal_one_30_vien_8270_6327_large_b7aaa7b503.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021932_happy_mom_jpanwell_60v_5688_5ff7_large_8cba32414f.JPG</t>
         </is>
       </c>
     </row>
@@ -861,17 +861,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Viên uống Happy Mom Jpanwell bổ sung vitamin và khoáng chất (60 viên)</t>
+          <t>Viên uống Anica Ocavill bổ sung Canxi và Vitamin D3 (60 viên)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>733.500đ / Hộp</t>
+          <t>560.000đ / Hộp</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021932_happy_mom_jpanwell_60v_5688_5ff7_large_8cba32414f.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_01865_3fa66c5ff7.jpg</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Viên uống Anica Ocavill bổ sung Canxi và Vitamin D3 (60 viên)</t>
+          <t>Viên uống Omexxel 3-6-9 tốt cho trí não, giúp bổ mắt (100 viên)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>560.000đ / Hộp</t>
+          <t>378.000đ / Hộp</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_01865_3fa66c5ff7.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09409_77358c32d7.jpg</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Viên uống Omexxel 3-6-9 tốt cho trí não, giúp bổ mắt (100 viên)</t>
+          <t>Siro Morningkids Multivitamin Bổ sung Vitamin và khoáng chất (150ml)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>378.000đ / Hộp</t>
+          <t>275.000đ / Chai</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09409_77358c32d7.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029661_morningkids_multivitamin_150ml_8912_6019_large_85f579207c.JPG</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Siro Morningkids Multivitamin Bổ sung Vitamin và khoáng chất (150ml)</t>
+          <t>Viên uống Omega-3 For Kids Nutrimed giúp trẻ phát triển trí não, thị lực (100 viên)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>275.000đ / Chai</t>
+          <t>450.000đ / Hộp</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029661_morningkids_multivitamin_150ml_8912_6019_large_85f579207c.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029877_omega_3_for_kids_300mg_nutrimed_international_100v_6416_633e_large_20c893600c.jpg</t>
         </is>
       </c>
     </row>
@@ -941,17 +941,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Viên uống Omega-3 For Kids Nutrimed giúp trẻ phát triển trí não, thị lực (100 viên)</t>
+          <t>Viên uống C 500mg Nature's Bounty bổ sung vitamin C, tăng cường sức đề kháng (100 viên)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>450.000đ / Hộp</t>
+          <t>325.000đ / Hộp</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029877_omega_3_for_kids_300mg_nutrimed_international_100v_6416_633e_large_20c893600c.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00031901_vien_uong_bo_sung_vitamin_c_natures_bounty_time_released_c_500mg_100v_6031_62ae_large_f8e2ab95d4.jpg</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Viên uống C 500mg Nature's Bounty bổ sung vitamin C, tăng cường sức đề kháng (100 viên)</t>
+          <t>Viên uống Calcium Magnesium Zinc Nature's Bounty hỗ trợ duy trì sức khoẻ hệ xương (100 viên)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>325.000đ / Hộp</t>
+          <t>270.000đ / Hộp</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00031901_vien_uong_bo_sung_vitamin_c_natures_bounty_time_released_c_500mg_100v_6031_62ae_large_f8e2ab95d4.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/3010463086026738196_1_0338e2ad27_10d5614f12.png</t>
         </is>
       </c>
     </row>
@@ -981,17 +981,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Viên uống Calcium Magnesium Zinc Nature's Bounty hỗ trợ duy trì sức khoẻ hệ xương (100 viên)</t>
+          <t>Viên uống Calci K2 Dao Nordic Health bổ sung canxi, chống loãng xương (60 viên)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>270.000đ / Hộp</t>
+          <t>365.000đ / Hộp</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/3010463086026738196_1_0338e2ad27.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345335_calci_k2_vien_bo_sung_canxi_ngua_loang_xuong_3579_62ae_large_0abcaf7b56.jpg</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Viên uống Calci K2 Dao Nordic Health bổ sung canxi, chống loãng xương (60 viên)</t>
+          <t>Viên uống NutriGrow Nutrimed bổ sung canxi, vitamin D3, vitamin K2, hấp thu canxi (60 viên)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>365.000đ / Hộp</t>
+          <t>480.000đ / Hộp</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345335_calci_k2_vien_bo_sung_canxi_ngua_loang_xuong_3579_62ae_large_0abcaf7b56.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05520_3e8211d9fa.jpg</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1021,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Viên uống NutriGrow Nutrimed bổ sung canxi, vitamin D3, vitamin K2, hấp thu canxi (60 viên)</t>
+          <t>Viên nang mềm NatureCare Omega 369 bổ sung Omega, giảm nguy cơ xơ vữa động mạch (6 vỉ x 20 viên)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>480.000đ / Hộp</t>
+          <t>570.000đ / Hộp</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05520_3e8211d9fa.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09006_a1b4671cf5.jpg</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Siro Fer + Multi Hatro bổ sung sắt và Vitamin nhóm B cho cơ thể (120ml)</t>
+          <t>Viên uống Omega 3-6-9 Pharmekal hỗ trợ giảm nguy cơ xơ vữa động mạch (100 viên)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>135.000đ / Hộp</t>
+          <t>319.000đ / Hộp</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08324_453bb032ed.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00005529_dau_ca_omega_369_my_5744_63d7_large_2e69b98de7.jpg</t>
         </is>
       </c>
     </row>
@@ -1061,17 +1061,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Siro ZinC + Lysin Hatro bổ sung kẽm, hỗ trợ tăng sức đề kháng cho trẻ (120ml)</t>
+          <t>Viên uống Prenatal One Vitamins For Life cung cấp DHA, Vitamin và khoáng chất thiết yếu (30 viên)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>150.000đ / Hộp</t>
+          <t>365.000đ / Hộp</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08313_1efe9a74d1.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021616_prenatal_one_30_vien_8270_6327_large_b7aaa7b503.jpg</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe Prenatal One Vitamins For Life cung cấp DHA, vitamin và khoáng chất</t>
+          <t>Dung dịch Vitamin D3+ DHA Hatro Pharvina tăng sức đề kháng, giảm nguy cơ còi xương (20ml)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>660.000đ / Hộp</t>
+          <t>320.000đ / Hộp</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00115_72e83dcffe.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_0270_9483dadf83.jpg</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Viên uống Calci K-2 Pharma World hỗ trợ giảm nguy cơ loãng xương (60 viên)</t>
+          <t>Thực phẩm bảo vệ sức khỏe NMN PQQ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>423.000đ / Hộp</t>
+          <t>6.675.000đ / Hộp</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00503275_vien_uong_bo_sung_canxi_giam_nguy_co_loang_xuong_pharma_word_calci_k_2_60v_2299_63ed_large_322e824179.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03542_6bfa8a6508.jpg</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dung dịch Vitamin D3+ DHA Hatro Pharvina tăng sức đề kháng, giảm nguy cơ còi xương (20ml)</t>
+          <t>Thực phẩm bảo vệ sức khỏe G-TEEN Kenko hỗ trợ phát triển cho bé gái giai đoạn dậy thì (30 gói x 15g)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>320.000đ / Hộp</t>
+          <t>1.550.000đ / Hộp</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_0270_9483dadf83.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04261_7bed2105fa.jpg</t>
         </is>
       </c>
     </row>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe NMN PQQ</t>
+          <t>Thực phẩm bảo vệ sức khỏe B-TEEN Kenko hỗ trợ phát triển cho bé trai giai đoạn dậy thì (30 gói x 15g)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6.675.000đ / Hộp</t>
+          <t>1.550.000đ / Hộp</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03542_6bfa8a6508.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04296_5a6bfce13c.jpg</t>
         </is>
       </c>
     </row>
@@ -1161,17 +1161,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe G-TEEN Kenko hỗ trợ phát triển cho bé gái giai đoạn dậy thì (30 gói x 15g)</t>
+          <t>Thực phẩm bảo vệ sức khỏe Omexxel E400 hỗ trợ chống oxy hóa, tốt cho da (3 vỉ x 10 viên)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1.550.000đ / Hộp</t>
+          <t>264.000đ / Hộp</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04261_7bed2105fa.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08986_a3ca1e01d8.jpg</t>
         </is>
       </c>
     </row>
@@ -1181,17 +1181,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe B-TEEN Kenko hỗ trợ phát triển cho bé trai giai đoạn dậy thì (30 gói x 15g)</t>
+          <t>Viên uống proMUM DHA Alg bổ sung DHA cho phụ nữ có thai và cho con bú (3 vỉ x 10 viên)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.550.000đ / Hộp</t>
+          <t>499.000đ / Hộp</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04296_5a6bfce13c.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09300_68669e0539.png</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe Omexxel E400 hỗ trợ chống oxy hóa, tốt cho da (3 vỉ x 10 viên)</t>
+          <t>Viên uống proMUM New Live bổ sung các chất dinh dưỡng cho phụ nữ mang thai và cho con bú (2 vỉ x 15 viên)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>264.000đ / Hộp</t>
+          <t>287.100đ / Hộp</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08986_a3ca1e01d8.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09314_a44e29a8b5.png</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Viên uống proMUM DHA Alg bổ sung DHA cho phụ nữ có thai và cho con bú (3 vỉ x 10 viên)</t>
+          <t>Viên uống proMUM Vomarin hỗ trợ giảm buồn nôn cho phụ nữ mang thai, tăng tiết sữa mẹ (2 vỉ x 15 viên)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>449.100đ / Hộp</t>
+          <t>279.200đ / Hộp</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09300_68669e0539.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09267_6b2553276f.png</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Viên uống proMUM New Live bổ sung các chất dinh dưỡng cho phụ nữ mang thai và cho con bú (2 vỉ x 15 viên)</t>
+          <t>Viên uống proMUM New Start bổ sung vitamin và khoáng chất cho phụ nữ có kế hoạch mang thai (2 vỉ x 15 viên)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>319.000đ / Hộp</t>
+          <t>329.000đ / Hộp</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09314_a44e29a8b5.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09286_e5de816ef0.png</t>
         </is>
       </c>
     </row>
@@ -1261,17 +1261,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Viên uống proMUM Vomarin hỗ trợ giảm buồn nôn cho phụ nữ mang thai, tăng tiết sữa mẹ (2 vỉ x 15 viên)</t>
+          <t>Siro Canxi + D3K2 Hatro bổ sung canxi giúp xương, răng chắc khỏe (120ml)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>279.200đ / Hộp</t>
+          <t>180.000đ / Hộp</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09267_6b2553276f.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08302_ba4462d00d.jpg</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1281,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Viên uống proMUM New Start bổ sung vitamin và khoáng chất cho phụ nữ có kế hoạch mang thai (2 vỉ x 15 viên)</t>
+          <t>Siro Fer + Multi Hatro bổ sung sắt và Vitamin nhóm B cho cơ thể (120ml)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>263.200đ / Hộp</t>
+          <t>150.000đ / Hộp</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09286_e5de816ef0.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08324_453bb032ed.jpg</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1301,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Siro Canxi + D3K2 Hatro bổ sung canxi giúp xương, răng chắc khỏe (120ml)</t>
+          <t>Viên uống Calci K-2 Pharma World hỗ trợ giảm nguy cơ loãng xương (60 viên)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>180.000đ / Hộp</t>
+          <t>470.000đ / Hộp</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08302_ba4462d00d.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00503275_vien_uong_bo_sung_canxi_giam_nguy_co_loang_xuong_pharma_word_calci_k_2_60v_2299_63ed_large_322e824179.jpg</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Siro Special Kid Appeti+ bổ sung các vitamin và khoáng chất, hỗ trợ tiêu hóa tốt (125ml)</t>
+          <t>Siro Special Kid Calcium Vitamine D bổ sung Calci và Vitamin D giúp xương, răng chắc khỏe (125ml)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00018674_special_kid_appetit_eric_favre_125ml_orange_4746_5c84_large_74bc61ec0f.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00018636_special_kid_calcium_vitamine_d_eric_favre_125ml_strawberry_7590_5c51_large_c023869638.jpg</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Siro Special Kid Zinc Eric Favre Wellness bổ sung kẽm, hỗ trợ tăng sức đề kháng cho trẻ (125ml)</t>
+          <t>Siro Special Kid Appeti+ bổ sung các vitamin và khoáng chất, hỗ trợ tiêu hóa tốt (125ml)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021694_special_kid_zinc_eric_favre_125ml_6593_62af_large_da861d0f7c.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00018674_special_kid_appetit_eric_favre_125ml_orange_4746_5c84_large_74bc61ec0f.jpg</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1421,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Viên uống Omexxel Calk2 bổ sung Canxi, Vitamin D3 (3 vỉ x 10 viên)</t>
+          <t>Siro Special Kid Zinc Eric Favre Wellness bổ sung kẽm, hỗ trợ tăng sức đề kháng cho trẻ (125ml)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>360.000đ / Hộp</t>
+          <t>254.000đ / Chai</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09350_52ddd56357.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021694_special_kid_zinc_eric_favre_125ml_6593_62af_large_da861d0f7c.jpg</t>
         </is>
       </c>
     </row>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe Vitamin E Kingphar bổ sung vitamin E, hỗ trợ chống oxy hóa (4 vỉ x 10 viên)</t>
+          <t>Viên uống Omexxel Calk2 bổ sung Canxi, Vitamin D3 (3 vỉ x 10 viên)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>105.000đ / Hộp</t>
+          <t>360.000đ / Hộp</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00028658_vitamin_e_kingphar_4x10_4232_5fcf_large_a36202c7e7.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09350_52ddd56357.png</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dung dịch MorningKids Increase Height bổ sung vitamin, tăng chiều cao cho trẻ (150ml)</t>
+          <t>Thực phẩm bảo vệ sức khỏe Vitamin E Kingphar bổ sung vitamin E, hỗ trợ chống oxy hóa (4 vỉ x 10 viên)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>276.000đ / Chai</t>
+          <t>105.000đ / Hộp</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029660_morningkids_increase_height_150ml_2277_6019_large_9b0ddfcae9.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00028658_vitamin_e_kingphar_4x10_4232_5fcf_large_a36202c7e7.JPG</t>
         </is>
       </c>
     </row>
@@ -1481,17 +1481,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Viên uống Bone Builder Drlife bổ sung canxi và vitamin cho xương (60 viên)</t>
+          <t>Dung dịch MorningKids Increase Height bổ sung vitamin, tăng chiều cao cho trẻ (150ml)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>327.000đ / Hộp</t>
+          <t>248.400đ / Chai</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08392_0461703d2a.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029660_morningkids_increase_height_150ml_2277_6019_large_9b0ddfcae9.JPG</t>
         </is>
       </c>
     </row>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Siro Special Kid Calcium Vitamine D bổ sung Calci và Vitamin D giúp xương, răng chắc khỏe (125ml)</t>
+          <t>Viên uống Bone Builder Drlife bổ sung canxi và vitamin cho xương (60 viên)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>254.000đ / Chai</t>
+          <t>327.000đ / Hộp</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00018636_special_kid_calcium_vitamine_d_eric_favre_125ml_strawberry_7590_5c51_large_c023869638.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08392_0461703d2a.jpg</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>329.400đ / Hộp</t>
+          <t>347.700đ / Hộp</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00006012_plusssz_max_multi_9735_62ae_large_7b93afc57f.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_07693_ca6a1ff565.png</t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Viên uống Orihiro Fish Oil hỗ trợ tốt cho não bộ và thị lực (180 viên)</t>
+          <t>Dung dịch Biomicus For Infants And Children Vitamin K2 And D3 hỗ trợ tốt cho xương, răng của bé (10ml)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>344.800đ / Hộp</t>
+          <t>330.000đ / Hộp</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09197_610196c48f.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09663_4125cf4a43.jpg</t>
         </is>
       </c>
     </row>
@@ -1961,17 +1961,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Dung dịch Biomicus For Infants And Children Vitamin K2 And D3 hỗ trợ tốt cho xương, răng của bé (10ml)</t>
+          <t>Siro Biolizin tăng cường sức đề kháng cho cơ thể (50ml)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>330.000đ / Hộp</t>
+          <t>295.000đ / Hộp</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09663_4125cf4a43.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04191_1a0299a5b1.jpg</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Siro Biolizin tăng cường sức đề kháng cho cơ thể (50ml)</t>
+          <t>Siro Pediakid Vitamin D3 bổ sung Vitamin D cho cơ thể, tăng hấp thụ canxi (20ml)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>295.000đ / Hộp</t>
+          <t>205.800đ / Chai</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04191_1a0299a5b1.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00010190_pediakid_vitamin_d3_20ml_1221_5fc0_large_731c4b15e1.JPG</t>
         </is>
       </c>
     </row>
@@ -2001,17 +2001,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Siro Pediakid Vitamin D3 bổ sung Vitamin D cho cơ thể, tăng hấp thụ canxi (20ml)</t>
+          <t>Siro Pediakid 22 Vitamines bổ sung Vitamin và khoáng chất (125ml)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>205.800đ / Chai</t>
+          <t>202.500đ / Chai</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00010190_pediakid_vitamin_d3_20ml_1221_5fc0_large_731c4b15e1.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00010189_pediakid_22_vitamin_9397_5c51_large_6111342a72.jpg</t>
         </is>
       </c>
     </row>
@@ -2021,17 +2021,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Siro Pediakid 22 Vitamines bổ sung Vitamin và khoáng chất (125ml)</t>
+          <t>Dung dịch uống Conipa CPC1 Hà Nội bổ sung kẽm, tăng cường sức đề kháng cho cơ thể (4 vỉ x 5 ống x 5ml)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>202.500đ / Chai</t>
+          <t>Hộp</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00010189_pediakid_22_vitamin_9397_5c51_large_6111342a72.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00028194_conipa_cpc1_4x5_ong_5ml_9065_5fad_large_d74ad5ea8e.JPG</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>495.000đ / Hộp</t>
+          <t>550.000đ / Hộp</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2081,17 +2081,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khoẻ Pregnacare Original Vitabiotics giúp bổ sung vitamin, khoáng chất cho phụ nữ mang thai và cho con bú (2 vỉ x 15 viên)</t>
+          <t>Viên uống 5-MTHF Plus bổ sung một số vitamin và khoáng chất cho cơ thể (3 vỉ x 10 viên)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>256.900đ / Hộp</t>
+          <t>450.000đ / Hộp</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00437_Recovered_e28e272a49.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00035_92033a4b41.jpg</t>
         </is>
       </c>
     </row>
@@ -2101,17 +2101,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Xịt họng Dimao Pro Oral Spray D3 + K2 hỗ trợ bổ sung vitamin D và vitamin K2 cho cơ thể (25ml)</t>
+          <t>Thực phẩm bảo vệ sức khoẻ Pregnacare Original Vitabiotics giúp bổ sung vitamin, khoáng chất cho phụ nữ mang thai và cho con bú (2 vỉ x 15 viên)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>352.000đ / Hộp</t>
+          <t>293.600đ / Hộp</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09623_e15fcd1307.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00437_Recovered_e28e272a49.jpg</t>
         </is>
       </c>
     </row>
@@ -2121,17 +2121,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe Perfectil Vitabiotics bổ sung vi chất làm đẹp da, móng, tóc (2 vỉ x 15 viên)</t>
+          <t>Xịt họng Dimao Pro Oral Spray D3 + K2 hỗ trợ bổ sung vitamin D và vitamin K2 cho cơ thể (25ml)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>544.000đ / Hộp</t>
+          <t>352.000đ / Hộp</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03134_4e1b20a326.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09623_e15fcd1307.jpg</t>
         </is>
       </c>
     </row>
@@ -2141,17 +2141,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Dung dịch Bestical 120ml Ergo Pharma bổ sung canxi, vitamin D3 và vitamin K2</t>
+          <t>Viên uống Orihiro Fish Oil hỗ trợ tốt cho não bộ và thị lực (180 viên)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>290.000đ / Hộp</t>
+          <t>471.000đ / Hộp</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03317_f70899d89d.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09197_610196c48f.jpg</t>
         </is>
       </c>
     </row>
@@ -2161,17 +2161,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Dung dịch DubOcean D3K2 Orzax 20ml bổ sung Vitamin D3 và Vitamin K</t>
+          <t>Thực phẩm bảo vệ sức khỏe Perfectil Vitabiotics bổ sung vi chất làm đẹp da, móng, tóc (2 vỉ x 15 viên)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>295.000đ / Chai</t>
+          <t>544.000đ / Hộp</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/TUK_04912_b685993d1c.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03134_4e1b20a326.jpg</t>
         </is>
       </c>
     </row>
@@ -2181,17 +2181,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe Bounavit Baby bổ sung vitamin cho trẻ (20ml)</t>
+          <t>Dung dịch Bestical 120ml Ergo Pharma bổ sung canxi, vitamin D3 và vitamin K2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>225.000đ / Hộp</t>
+          <t>290.000đ / Hộp</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00726_dcfe056079.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03317_f70899d89d.jpg</t>
         </is>
       </c>
     </row>
@@ -2201,17 +2201,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Viên uống Blackmores Multivitamin For Men cung cấp vitamin, khoáng chất (50 viên)</t>
+          <t>Dung dịch DubOcean D3K2 Orzax 20ml bổ sung Vitamin D3 và Vitamin K</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>476.850đ / Hộp</t>
+          <t>295.000đ / Chai</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00502413_blackmores_multivitamin_for_men_50v_2599_634e_large_02d9526625.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/TUK_04912_b685993d1c.jpg</t>
         </is>
       </c>
     </row>
@@ -2221,17 +2221,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Dung dịch uống Fitobimbi D3 + K2 Delap bổ sung vitamin D3 và vitamin K2, hỗ trợ hấp thu canxi cho cơ thể (30ml)</t>
+          <t>Thực phẩm bảo vệ sức khỏe Bounavit Baby bổ sung vitamin cho trẻ (20ml)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>290.000đ / Hộp</t>
+          <t>225.000đ / Hộp</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/29_f6442f2d51.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00726_dcfe056079.jpg</t>
         </is>
       </c>
     </row>
@@ -2241,17 +2241,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Dung dịch Ferrodue 15ml Buona bổ sung sắt cho cơ thể, giảm nguy cơ thiếu máu</t>
+          <t>Viên uống Blackmores Multivitamin For Men cung cấp vitamin, khoáng chất (50 viên)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>215.000đ / Lọ</t>
+          <t>476.850đ / Hộp</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03393_116f2aec35.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00502413_blackmores_multivitamin_for_men_50v_2599_634e_large_02d9526625.jpg</t>
         </is>
       </c>
     </row>
@@ -2261,17 +2261,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Siro Brauer Kids Liquid Calcium with Magnesium And Zinc hỗ trợ xương, răng phát triển chắc khỏe cho bé (200ml)</t>
+          <t>Dung dịch uống Fitobimbi D3 + K2 Delap bổ sung vitamin D3 và vitamin K2, hỗ trợ hấp thu canxi cho cơ thể (30ml)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>520.000đ / Hộp</t>
+          <t>290.000đ / Hộp</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05492_e8136dc4fa.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/29_f6442f2d51.png</t>
         </is>
       </c>
     </row>
@@ -2281,17 +2281,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Viên nhai Nature's Way Kids Smart Vita Gummies Omega-3 DHA Fish Oil hỗ trợ tăng cường sức khỏe (60 viên)</t>
+          <t>Dung dịch Ferrodue 15ml Buona bổ sung sắt cho cơ thể, giảm nguy cơ thiếu máu</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>279.000đ / Hộp</t>
+          <t>215.000đ / Lọ</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033517_KIDS_SMART_NATURE_S_WAY_VITA_GUMMIES_OMEGA_3_DHA_FISH_OIL_60_V_d1c1cede08.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03393_116f2aec35.jpg</t>
         </is>
       </c>
     </row>
